--- a/TestDataLC.xlsx
+++ b/TestDataLC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\EPInew\liquorCart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\EPI-Liquorcart\liquorCartDev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D19F1-C143-43D8-A4DF-8CEB7BCD6EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F9242-39B6-4395-8A42-C41A894259C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeaderValidation" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Liquor</t>
   </si>
@@ -174,30 +174,15 @@
     <t>SuccessText</t>
   </si>
   <si>
-    <t>Shubham</t>
-  </si>
-  <si>
-    <t>Srivastava</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Test Street</t>
-  </si>
-  <si>
     <t>123@welcome</t>
   </si>
   <si>
-    <t>thesrivastava2008@gmail.com</t>
-  </si>
-  <si>
     <t>saved</t>
   </si>
   <si>
@@ -211,6 +196,30 @@
   </si>
   <si>
     <t>Sharons Liquors</t>
+  </si>
+  <si>
+    <t>sonal.kashyap140587@gmail.com</t>
+  </si>
+  <si>
+    <t>900 Ray Rural road</t>
+  </si>
+  <si>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <t>Kashyap</t>
+  </si>
+  <si>
+    <t>07985626632</t>
+  </si>
+  <si>
+    <t>85224</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -255,12 +264,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -540,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574F7D6B-D7FF-4462-A874-D86AD5ADE337}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -566,7 +572,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -661,7 +667,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +833,7 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -837,15 +843,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342D75EF-592B-4713-BF39-C5CEF0A80AED}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -885,43 +896,48 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9999999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>53</v>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{DEF2C0BB-66EE-4B05-863B-2CAB12AA619D}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{91CB26BD-C9FE-4C07-B4D3-D1AD256FBB2B}"/>
+    <hyperlink ref="G2" r:id="rId2" display="tel:07985626632" xr:uid="{8F2EFB50-BA14-4ADA-BB56-C56CAA3B7B90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -938,12 +954,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
